--- a/database/industries/shoyande/shepaksa/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/shepaksa/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816677C-CD90-4969-8A4F-20EA2AF07732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374B93C-143F-4855-9C02-DE96D174EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپاکسا-پاکسان‌</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/06</t>
@@ -654,16 +639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N101"/>
+  <dimension ref="B1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,13 +657,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,13 +669,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,13 +681,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,13 +691,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,13 +703,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,13 +715,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,13 +725,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -797,23 +747,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,15 +757,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -839,169 +769,104 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>4360</v>
+        <v>6179</v>
       </c>
       <c r="F11" s="11">
-        <v>5172</v>
+        <v>9282</v>
       </c>
       <c r="G11" s="11">
-        <v>9159</v>
+        <v>3507</v>
       </c>
       <c r="H11" s="11">
-        <v>6450</v>
+        <v>2809</v>
       </c>
       <c r="I11" s="11">
-        <v>5349</v>
-      </c>
-      <c r="J11" s="11">
-        <v>6179</v>
-      </c>
-      <c r="K11" s="11">
-        <v>9282</v>
-      </c>
-      <c r="L11" s="11">
-        <v>3507</v>
-      </c>
-      <c r="M11" s="11">
-        <v>2809</v>
-      </c>
-      <c r="N11" s="11">
         <v>3818</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>8756</v>
+        <v>12607</v>
       </c>
       <c r="F12" s="13">
-        <v>9183</v>
+        <v>15245</v>
       </c>
       <c r="G12" s="13">
-        <v>14469</v>
+        <v>5760</v>
       </c>
       <c r="H12" s="13">
-        <v>9621</v>
+        <v>7215</v>
       </c>
       <c r="I12" s="13">
-        <v>5559</v>
-      </c>
-      <c r="J12" s="13">
-        <v>12607</v>
-      </c>
-      <c r="K12" s="13">
-        <v>15245</v>
-      </c>
-      <c r="L12" s="13">
-        <v>5760</v>
-      </c>
-      <c r="M12" s="13">
-        <v>7215</v>
-      </c>
-      <c r="N12" s="13">
         <v>6154</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4809</v>
+        <v>6501</v>
       </c>
       <c r="F13" s="11">
-        <v>4593</v>
+        <v>7323</v>
       </c>
       <c r="G13" s="11">
-        <v>6950</v>
+        <v>3461</v>
       </c>
       <c r="H13" s="11">
-        <v>6336</v>
+        <v>3741</v>
       </c>
       <c r="I13" s="11">
-        <v>4224</v>
-      </c>
-      <c r="J13" s="11">
-        <v>6501</v>
-      </c>
-      <c r="K13" s="11">
-        <v>7323</v>
-      </c>
-      <c r="L13" s="11">
-        <v>3461</v>
-      </c>
-      <c r="M13" s="11">
-        <v>3741</v>
-      </c>
-      <c r="N13" s="11">
         <v>4341</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>17925</v>
+        <v>25287</v>
       </c>
       <c r="F14" s="15">
-        <v>18948</v>
+        <v>31850</v>
       </c>
       <c r="G14" s="15">
-        <v>30578</v>
+        <v>12728</v>
       </c>
       <c r="H14" s="15">
-        <v>22407</v>
+        <v>13765</v>
       </c>
       <c r="I14" s="15">
-        <v>15132</v>
-      </c>
-      <c r="J14" s="15">
-        <v>25287</v>
-      </c>
-      <c r="K14" s="15">
-        <v>31850</v>
-      </c>
-      <c r="L14" s="15">
-        <v>12728</v>
-      </c>
-      <c r="M14" s="15">
-        <v>13765</v>
-      </c>
-      <c r="N14" s="15">
         <v>14313</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1010,169 +875,104 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>2412</v>
+        <v>1922</v>
       </c>
       <c r="F16" s="11">
-        <v>3474</v>
+        <v>2087</v>
       </c>
       <c r="G16" s="11">
-        <v>2865</v>
+        <v>2621</v>
       </c>
       <c r="H16" s="11">
-        <v>1318</v>
+        <v>1134</v>
       </c>
       <c r="I16" s="11">
-        <v>2300</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1922</v>
-      </c>
-      <c r="K16" s="11">
-        <v>2087</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2621</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1134</v>
-      </c>
-      <c r="N16" s="11">
         <v>1622</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>5494</v>
+        <v>5766</v>
       </c>
       <c r="F17" s="13">
-        <v>6156</v>
+        <v>6628</v>
       </c>
       <c r="G17" s="13">
-        <v>5445</v>
+        <v>3636</v>
       </c>
       <c r="H17" s="13">
-        <v>5382</v>
+        <v>7443</v>
       </c>
       <c r="I17" s="13">
-        <v>6372</v>
-      </c>
-      <c r="J17" s="13">
-        <v>5766</v>
-      </c>
-      <c r="K17" s="13">
-        <v>6628</v>
-      </c>
-      <c r="L17" s="13">
-        <v>3636</v>
-      </c>
-      <c r="M17" s="13">
-        <v>7443</v>
-      </c>
-      <c r="N17" s="13">
         <v>14119</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" s="11">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="G18" s="11">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="H18" s="11">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="I18" s="11">
-        <v>18</v>
-      </c>
-      <c r="J18" s="11">
-        <v>103</v>
-      </c>
-      <c r="K18" s="11">
-        <v>349</v>
-      </c>
-      <c r="L18" s="11">
-        <v>232</v>
-      </c>
-      <c r="M18" s="11">
-        <v>352</v>
-      </c>
-      <c r="N18" s="11">
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>8013</v>
+        <v>7791</v>
       </c>
       <c r="F19" s="15">
-        <v>9869</v>
+        <v>9064</v>
       </c>
       <c r="G19" s="15">
-        <v>8454</v>
+        <v>6489</v>
       </c>
       <c r="H19" s="15">
-        <v>6723</v>
+        <v>8929</v>
       </c>
       <c r="I19" s="15">
-        <v>8690</v>
-      </c>
-      <c r="J19" s="15">
-        <v>7791</v>
-      </c>
-      <c r="K19" s="15">
-        <v>9064</v>
-      </c>
-      <c r="L19" s="15">
-        <v>6489</v>
-      </c>
-      <c r="M19" s="15">
-        <v>8929</v>
-      </c>
-      <c r="N19" s="15">
         <v>16384</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1181,141 +981,91 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="G21" s="11">
-        <v>-5470</v>
+        <v>845</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="I21" s="11">
-        <v>-2206</v>
-      </c>
-      <c r="J21" s="11">
-        <v>1478</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1359</v>
-      </c>
-      <c r="L21" s="11">
-        <v>845</v>
-      </c>
-      <c r="M21" s="11">
-        <v>519</v>
-      </c>
-      <c r="N21" s="11">
         <v>608</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="F22" s="15">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="G22" s="15">
-        <v>-5470</v>
+        <v>845</v>
       </c>
       <c r="H22" s="15">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="I22" s="15">
-        <v>-2206</v>
-      </c>
-      <c r="J22" s="15">
-        <v>1478</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1359</v>
-      </c>
-      <c r="L22" s="15">
-        <v>845</v>
-      </c>
-      <c r="M22" s="15">
-        <v>519</v>
-      </c>
-      <c r="N22" s="15">
         <v>608</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
+      <c r="F24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
@@ -1323,60 +1073,30 @@
       <c r="I24" s="15">
         <v>0</v>
       </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
-        <v>25938</v>
+        <v>34556</v>
       </c>
       <c r="F25" s="17">
-        <v>28817</v>
+        <v>42273</v>
       </c>
       <c r="G25" s="17">
-        <v>33562</v>
+        <v>20062</v>
       </c>
       <c r="H25" s="17">
-        <v>29130</v>
+        <v>23213</v>
       </c>
       <c r="I25" s="17">
-        <v>21616</v>
-      </c>
-      <c r="J25" s="17">
-        <v>34556</v>
-      </c>
-      <c r="K25" s="17">
-        <v>42273</v>
-      </c>
-      <c r="L25" s="17">
-        <v>20062</v>
-      </c>
-      <c r="M25" s="17">
-        <v>23213</v>
-      </c>
-      <c r="N25" s="17">
         <v>31305</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1385,13 +1105,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1400,13 +1115,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1415,15 +1125,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1442,23 +1147,8 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1467,15 +1157,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1484,169 +1169,104 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>538885</v>
+        <v>1743708</v>
       </c>
       <c r="F32" s="11">
-        <v>813571</v>
+        <v>2799061</v>
       </c>
       <c r="G32" s="11">
-        <v>1374776</v>
+        <v>1108636</v>
       </c>
       <c r="H32" s="11">
-        <v>1488707</v>
+        <v>1077066</v>
       </c>
       <c r="I32" s="11">
-        <v>1372659</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1743708</v>
-      </c>
-      <c r="K32" s="11">
-        <v>2799061</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1108636</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1077066</v>
-      </c>
-      <c r="N32" s="11">
         <v>1739842</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>604777</v>
+        <v>2055009</v>
       </c>
       <c r="F33" s="13">
-        <v>882849</v>
+        <v>2365801</v>
       </c>
       <c r="G33" s="13">
-        <v>1743038</v>
+        <v>956709</v>
       </c>
       <c r="H33" s="13">
-        <v>1318369</v>
+        <v>1236229</v>
       </c>
       <c r="I33" s="13">
-        <v>744059</v>
-      </c>
-      <c r="J33" s="13">
-        <v>2055009</v>
-      </c>
-      <c r="K33" s="13">
-        <v>2365801</v>
-      </c>
-      <c r="L33" s="13">
-        <v>956709</v>
-      </c>
-      <c r="M33" s="13">
-        <v>1236229</v>
-      </c>
-      <c r="N33" s="13">
         <v>1389603</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>723595</v>
+        <v>2205991</v>
       </c>
       <c r="F34" s="11">
-        <v>920348</v>
+        <v>2546224</v>
       </c>
       <c r="G34" s="11">
-        <v>1788522</v>
+        <v>1257623</v>
       </c>
       <c r="H34" s="11">
-        <v>1818110</v>
+        <v>1436935</v>
       </c>
       <c r="I34" s="11">
-        <v>1221209</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2205991</v>
-      </c>
-      <c r="K34" s="11">
-        <v>2546224</v>
-      </c>
-      <c r="L34" s="11">
-        <v>1257623</v>
-      </c>
-      <c r="M34" s="11">
-        <v>1436935</v>
-      </c>
-      <c r="N34" s="11">
         <v>1916784</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>1867257</v>
+        <v>6004708</v>
       </c>
       <c r="F35" s="15">
-        <v>2616768</v>
+        <v>7711086</v>
       </c>
       <c r="G35" s="15">
-        <v>4906336</v>
+        <v>3322968</v>
       </c>
       <c r="H35" s="15">
-        <v>4625186</v>
+        <v>3750230</v>
       </c>
       <c r="I35" s="15">
-        <v>3337927</v>
-      </c>
-      <c r="J35" s="15">
-        <v>6004708</v>
-      </c>
-      <c r="K35" s="15">
-        <v>7711086</v>
-      </c>
-      <c r="L35" s="15">
-        <v>3322968</v>
-      </c>
-      <c r="M35" s="15">
-        <v>3750230</v>
-      </c>
-      <c r="N35" s="15">
         <v>5046229</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1655,169 +1275,104 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>337653</v>
+        <v>500686</v>
       </c>
       <c r="F37" s="11">
-        <v>516803</v>
+        <v>338102</v>
       </c>
       <c r="G37" s="11">
-        <v>459674</v>
+        <v>688098</v>
       </c>
       <c r="H37" s="11">
-        <v>290586</v>
+        <v>299016</v>
       </c>
       <c r="I37" s="11">
-        <v>434829</v>
-      </c>
-      <c r="J37" s="11">
-        <v>500686</v>
-      </c>
-      <c r="K37" s="11">
-        <v>338102</v>
-      </c>
-      <c r="L37" s="11">
-        <v>688098</v>
-      </c>
-      <c r="M37" s="11">
-        <v>299016</v>
-      </c>
-      <c r="N37" s="11">
         <v>409992</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>211214</v>
+        <v>380596</v>
       </c>
       <c r="F38" s="13">
-        <v>344413</v>
+        <v>467146</v>
       </c>
       <c r="G38" s="13">
-        <v>353038</v>
+        <v>242300</v>
       </c>
       <c r="H38" s="13">
-        <v>284993</v>
+        <v>417570</v>
       </c>
       <c r="I38" s="13">
-        <v>379963</v>
-      </c>
-      <c r="J38" s="13">
-        <v>380596</v>
-      </c>
-      <c r="K38" s="13">
-        <v>467146</v>
-      </c>
-      <c r="L38" s="13">
-        <v>242300</v>
-      </c>
-      <c r="M38" s="13">
-        <v>417570</v>
-      </c>
-      <c r="N38" s="13">
         <v>1177608</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>12093</v>
+        <v>26291</v>
       </c>
       <c r="F39" s="11">
-        <v>33689</v>
+        <v>100092</v>
       </c>
       <c r="G39" s="11">
-        <v>26141</v>
+        <v>78311</v>
       </c>
       <c r="H39" s="11">
-        <v>4036</v>
+        <v>131473</v>
       </c>
       <c r="I39" s="11">
-        <v>4280</v>
-      </c>
-      <c r="J39" s="11">
-        <v>26291</v>
-      </c>
-      <c r="K39" s="11">
-        <v>100092</v>
-      </c>
-      <c r="L39" s="11">
-        <v>78311</v>
-      </c>
-      <c r="M39" s="11">
-        <v>131473</v>
-      </c>
-      <c r="N39" s="11">
         <v>284529</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>560960</v>
+        <v>907573</v>
       </c>
       <c r="F40" s="15">
-        <v>894905</v>
+        <v>905340</v>
       </c>
       <c r="G40" s="15">
-        <v>838853</v>
+        <v>1008709</v>
       </c>
       <c r="H40" s="15">
-        <v>579615</v>
+        <v>848059</v>
       </c>
       <c r="I40" s="15">
-        <v>819072</v>
-      </c>
-      <c r="J40" s="15">
-        <v>907573</v>
-      </c>
-      <c r="K40" s="15">
-        <v>905340</v>
-      </c>
-      <c r="L40" s="15">
-        <v>1008709</v>
-      </c>
-      <c r="M40" s="15">
-        <v>848059</v>
-      </c>
-      <c r="N40" s="15">
         <v>1872129</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1826,143 +1381,93 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>27644</v>
+        <v>39300</v>
       </c>
       <c r="F42" s="11">
-        <v>33666</v>
+        <v>36241</v>
       </c>
       <c r="G42" s="11">
-        <v>44784</v>
+        <v>25449</v>
       </c>
       <c r="H42" s="11">
-        <v>50314</v>
+        <v>17895</v>
       </c>
       <c r="I42" s="11">
-        <v>39687</v>
-      </c>
-      <c r="J42" s="11">
-        <v>39300</v>
-      </c>
-      <c r="K42" s="11">
-        <v>36241</v>
-      </c>
-      <c r="L42" s="11">
-        <v>25449</v>
-      </c>
-      <c r="M42" s="11">
-        <v>17895</v>
-      </c>
-      <c r="N42" s="11">
         <v>21059</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>27644</v>
+        <v>39300</v>
       </c>
       <c r="F43" s="15">
-        <v>33666</v>
+        <v>36241</v>
       </c>
       <c r="G43" s="15">
-        <v>44784</v>
+        <v>25449</v>
       </c>
       <c r="H43" s="15">
-        <v>50314</v>
+        <v>17895</v>
       </c>
       <c r="I43" s="15">
-        <v>39687</v>
-      </c>
-      <c r="J43" s="15">
-        <v>39300</v>
-      </c>
-      <c r="K43" s="15">
-        <v>36241</v>
-      </c>
-      <c r="L43" s="15">
-        <v>25449</v>
-      </c>
-      <c r="M43" s="15">
-        <v>17895</v>
-      </c>
-      <c r="N43" s="15">
         <v>21059</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0</v>
-      </c>
-      <c r="H44" s="17">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17" t="s">
+      <c r="E44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
         <v>0</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
+      <c r="F45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H45" s="15">
         <v>0</v>
@@ -1970,60 +1475,30 @@
       <c r="I45" s="15">
         <v>0</v>
       </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-      <c r="N45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17">
-        <v>2455861</v>
+        <v>6951581</v>
       </c>
       <c r="F46" s="17">
-        <v>3545339</v>
+        <v>8652667</v>
       </c>
       <c r="G46" s="17">
-        <v>5789973</v>
+        <v>4357126</v>
       </c>
       <c r="H46" s="17">
-        <v>5255115</v>
+        <v>4616184</v>
       </c>
       <c r="I46" s="17">
-        <v>4196686</v>
-      </c>
-      <c r="J46" s="17">
-        <v>6951581</v>
-      </c>
-      <c r="K46" s="17">
-        <v>8652667</v>
-      </c>
-      <c r="L46" s="17">
-        <v>4357126</v>
-      </c>
-      <c r="M46" s="17">
-        <v>4616184</v>
-      </c>
-      <c r="N46" s="17">
         <v>6939417</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2032,13 +1507,8 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2047,13 +1517,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2062,15 +1527,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2089,23 +1549,8 @@
       <c r="I50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2114,15 +1559,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2131,132 +1571,82 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>123597477</v>
+        <v>282199061</v>
       </c>
       <c r="F53" s="11">
-        <v>157302978</v>
+        <v>301557962</v>
       </c>
       <c r="G53" s="11">
-        <v>150101103</v>
+        <v>316120901</v>
       </c>
       <c r="H53" s="11">
-        <v>230807287</v>
+        <v>383433962</v>
       </c>
       <c r="I53" s="11">
-        <v>256619742</v>
-      </c>
-      <c r="J53" s="11">
-        <v>282199061</v>
-      </c>
-      <c r="K53" s="11">
-        <v>301557962</v>
-      </c>
-      <c r="L53" s="11">
-        <v>316120901</v>
-      </c>
-      <c r="M53" s="11">
-        <v>383433962</v>
-      </c>
-      <c r="N53" s="11">
         <v>455694605</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>69070009</v>
+        <v>163005394</v>
       </c>
       <c r="F54" s="13">
-        <v>96139497</v>
+        <v>155185372</v>
       </c>
       <c r="G54" s="13">
-        <v>120467068</v>
+        <v>166095313</v>
       </c>
       <c r="H54" s="13">
-        <v>137030350</v>
+        <v>171341511</v>
       </c>
       <c r="I54" s="13">
-        <v>133847634</v>
-      </c>
-      <c r="J54" s="13">
-        <v>163005394</v>
-      </c>
-      <c r="K54" s="13">
-        <v>155185372</v>
-      </c>
-      <c r="L54" s="13">
-        <v>166095313</v>
-      </c>
-      <c r="M54" s="13">
-        <v>171341511</v>
-      </c>
-      <c r="N54" s="13">
         <v>225804842</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>150466833</v>
+        <v>339331026</v>
       </c>
       <c r="F55" s="11">
-        <v>200380579</v>
+        <v>347702308</v>
       </c>
       <c r="G55" s="11">
-        <v>257341295</v>
+        <v>363369835</v>
       </c>
       <c r="H55" s="11">
-        <v>286949179</v>
+        <v>384104518</v>
       </c>
       <c r="I55" s="11">
-        <v>289111979</v>
-      </c>
-      <c r="J55" s="11">
-        <v>339331026</v>
-      </c>
-      <c r="K55" s="11">
-        <v>347702308</v>
-      </c>
-      <c r="L55" s="11">
-        <v>363369835</v>
-      </c>
-      <c r="M55" s="11">
-        <v>384104518</v>
-      </c>
-      <c r="N55" s="11">
         <v>441553559</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2265,132 +1655,82 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>139988806</v>
+        <v>260502601</v>
       </c>
       <c r="F57" s="11">
-        <v>148763097</v>
+        <v>162003833</v>
       </c>
       <c r="G57" s="11">
-        <v>160444677</v>
+        <v>262532621</v>
       </c>
       <c r="H57" s="11">
-        <v>220474962</v>
+        <v>263682540</v>
       </c>
       <c r="I57" s="11">
-        <v>189056087</v>
-      </c>
-      <c r="J57" s="11">
-        <v>260502601</v>
-      </c>
-      <c r="K57" s="11">
-        <v>162003833</v>
-      </c>
-      <c r="L57" s="11">
-        <v>262532621</v>
-      </c>
-      <c r="M57" s="11">
-        <v>263682540</v>
-      </c>
-      <c r="N57" s="11">
         <v>252769420</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>38444485</v>
+        <v>66006937</v>
       </c>
       <c r="F58" s="13">
-        <v>55947531</v>
+        <v>70480688</v>
       </c>
       <c r="G58" s="13">
-        <v>64837098</v>
+        <v>66639164</v>
       </c>
       <c r="H58" s="13">
-        <v>52952991</v>
+        <v>56102378</v>
       </c>
       <c r="I58" s="13">
-        <v>59630100</v>
-      </c>
-      <c r="J58" s="13">
-        <v>66006937</v>
-      </c>
-      <c r="K58" s="13">
-        <v>70480688</v>
-      </c>
-      <c r="L58" s="13">
-        <v>66639164</v>
-      </c>
-      <c r="M58" s="13">
-        <v>56102378</v>
-      </c>
-      <c r="N58" s="13">
         <v>83405907</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>113018692</v>
+        <v>255252427</v>
       </c>
       <c r="F59" s="11">
-        <v>140958159</v>
+        <v>286796562</v>
       </c>
       <c r="G59" s="11">
-        <v>181534722</v>
+        <v>337547414</v>
       </c>
       <c r="H59" s="11">
-        <v>175478261</v>
+        <v>373502841</v>
       </c>
       <c r="I59" s="11">
-        <v>237777778</v>
-      </c>
-      <c r="J59" s="11">
-        <v>255252427</v>
-      </c>
-      <c r="K59" s="11">
-        <v>286796562</v>
-      </c>
-      <c r="L59" s="11">
-        <v>337547414</v>
-      </c>
-      <c r="M59" s="11">
-        <v>373502841</v>
-      </c>
-      <c r="N59" s="11">
         <v>442502333</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2399,52 +1739,32 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2453,13 +1773,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2468,13 +1783,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2483,15 +1793,10 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2510,23 +1815,8 @@
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2535,15 +1825,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2552,169 +1837,104 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>-426851</v>
+        <v>-1455743</v>
       </c>
       <c r="F68" s="11">
-        <v>-580324</v>
+        <v>-2267023</v>
       </c>
       <c r="G68" s="11">
-        <v>-1003436</v>
+        <v>-901403</v>
       </c>
       <c r="H68" s="11">
-        <v>-1253516</v>
+        <v>-841235</v>
       </c>
       <c r="I68" s="11">
-        <v>-1134794</v>
-      </c>
-      <c r="J68" s="11">
-        <v>-1455743</v>
-      </c>
-      <c r="K68" s="11">
-        <v>-2267023</v>
-      </c>
-      <c r="L68" s="11">
-        <v>-901403</v>
-      </c>
-      <c r="M68" s="11">
-        <v>-841235</v>
-      </c>
-      <c r="N68" s="11">
         <v>-1324007</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>-578620</v>
+        <v>-1820297</v>
       </c>
       <c r="F69" s="13">
-        <v>-656242</v>
+        <v>-2369290</v>
       </c>
       <c r="G69" s="13">
-        <v>-1394462</v>
+        <v>-1000628</v>
       </c>
       <c r="H69" s="13">
-        <v>-1152270</v>
+        <v>-1334710</v>
       </c>
       <c r="I69" s="13">
-        <v>-732130</v>
-      </c>
-      <c r="J69" s="13">
-        <v>-1820297</v>
-      </c>
-      <c r="K69" s="13">
-        <v>-2369290</v>
-      </c>
-      <c r="L69" s="13">
-        <v>-1000628</v>
-      </c>
-      <c r="M69" s="13">
-        <v>-1334710</v>
-      </c>
-      <c r="N69" s="13">
         <v>-1468696</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-529797</v>
+        <v>-1770048</v>
       </c>
       <c r="F70" s="11">
-        <v>-612764</v>
+        <v>-2301732</v>
       </c>
       <c r="G70" s="11">
-        <v>-1437497</v>
+        <v>-1244183</v>
       </c>
       <c r="H70" s="11">
-        <v>-1669883</v>
+        <v>-1526195</v>
       </c>
       <c r="I70" s="11">
-        <v>-1132778</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-1770048</v>
-      </c>
-      <c r="K70" s="11">
-        <v>-2301732</v>
-      </c>
-      <c r="L70" s="11">
-        <v>-1244183</v>
-      </c>
-      <c r="M70" s="11">
-        <v>-1526195</v>
-      </c>
-      <c r="N70" s="11">
         <v>-1921940</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>-1535268</v>
+        <v>-5046088</v>
       </c>
       <c r="F71" s="15">
-        <v>-1849330</v>
+        <v>-6938045</v>
       </c>
       <c r="G71" s="15">
-        <v>-3835395</v>
+        <v>-3146214</v>
       </c>
       <c r="H71" s="15">
-        <v>-4075669</v>
+        <v>-3702140</v>
       </c>
       <c r="I71" s="15">
-        <v>-2999702</v>
-      </c>
-      <c r="J71" s="15">
-        <v>-5046088</v>
-      </c>
-      <c r="K71" s="15">
-        <v>-6938045</v>
-      </c>
-      <c r="L71" s="15">
-        <v>-3146214</v>
-      </c>
-      <c r="M71" s="15">
-        <v>-3702140</v>
-      </c>
-      <c r="N71" s="15">
         <v>-4714643</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2723,169 +1943,104 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>-258780</v>
+        <v>-426259</v>
       </c>
       <c r="F73" s="11">
-        <v>-374011</v>
+        <v>-294036</v>
       </c>
       <c r="G73" s="11">
-        <v>-339861</v>
+        <v>-697035</v>
       </c>
       <c r="H73" s="11">
-        <v>-260701</v>
+        <v>-287497</v>
       </c>
       <c r="I73" s="11">
-        <v>-433799</v>
-      </c>
-      <c r="J73" s="11">
-        <v>-426259</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-294036</v>
-      </c>
-      <c r="L73" s="11">
-        <v>-697035</v>
-      </c>
-      <c r="M73" s="11">
-        <v>-287497</v>
-      </c>
-      <c r="N73" s="11">
         <v>-353771</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>-130794</v>
+        <v>-313156</v>
       </c>
       <c r="F74" s="13">
-        <v>-171429</v>
+        <v>-399109</v>
       </c>
       <c r="G74" s="13">
-        <v>-177337</v>
+        <v>-232535</v>
       </c>
       <c r="H74" s="13">
-        <v>-226092</v>
+        <v>-576070</v>
       </c>
       <c r="I74" s="13">
-        <v>-330624</v>
-      </c>
-      <c r="J74" s="13">
-        <v>-313156</v>
-      </c>
-      <c r="K74" s="13">
-        <v>-399109</v>
-      </c>
-      <c r="L74" s="13">
-        <v>-232535</v>
-      </c>
-      <c r="M74" s="13">
-        <v>-576070</v>
-      </c>
-      <c r="N74" s="13">
         <v>-1146257</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>-8519</v>
+        <v>-23633</v>
       </c>
       <c r="F75" s="11">
-        <v>-23011</v>
+        <v>-82127</v>
       </c>
       <c r="G75" s="11">
-        <v>-15155</v>
+        <v>-85463</v>
       </c>
       <c r="H75" s="11">
-        <v>-4844</v>
+        <v>-110164</v>
       </c>
       <c r="I75" s="11">
-        <v>-4311</v>
-      </c>
-      <c r="J75" s="11">
-        <v>-23633</v>
-      </c>
-      <c r="K75" s="11">
-        <v>-82127</v>
-      </c>
-      <c r="L75" s="11">
-        <v>-85463</v>
-      </c>
-      <c r="M75" s="11">
-        <v>-110164</v>
-      </c>
-      <c r="N75" s="11">
         <v>-291295</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>-398093</v>
+        <v>-763048</v>
       </c>
       <c r="F76" s="15">
-        <v>-568451</v>
+        <v>-775272</v>
       </c>
       <c r="G76" s="15">
-        <v>-532353</v>
+        <v>-1015033</v>
       </c>
       <c r="H76" s="15">
-        <v>-491637</v>
+        <v>-973731</v>
       </c>
       <c r="I76" s="15">
-        <v>-768734</v>
-      </c>
-      <c r="J76" s="15">
-        <v>-763048</v>
-      </c>
-      <c r="K76" s="15">
-        <v>-775272</v>
-      </c>
-      <c r="L76" s="15">
-        <v>-1015033</v>
-      </c>
-      <c r="M76" s="15">
-        <v>-973731</v>
-      </c>
-      <c r="N76" s="15">
         <v>-1791323</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2894,143 +2049,93 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-8776</v>
+        <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>-12527</v>
+        <v>0</v>
       </c>
       <c r="G78" s="11">
-        <v>-11383</v>
+        <v>-14020</v>
       </c>
       <c r="H78" s="11">
-        <v>-13985</v>
+        <v>-9735</v>
       </c>
       <c r="I78" s="11">
-        <v>-25269</v>
-      </c>
-      <c r="J78" s="11">
-        <v>0</v>
-      </c>
-      <c r="K78" s="11">
-        <v>0</v>
-      </c>
-      <c r="L78" s="11">
-        <v>-14020</v>
-      </c>
-      <c r="M78" s="11">
-        <v>-9735</v>
-      </c>
-      <c r="N78" s="11">
         <v>-25722</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>-8776</v>
+        <v>0</v>
       </c>
       <c r="F79" s="15">
-        <v>-12527</v>
+        <v>0</v>
       </c>
       <c r="G79" s="15">
-        <v>-11383</v>
+        <v>-14020</v>
       </c>
       <c r="H79" s="15">
-        <v>-13985</v>
+        <v>-9735</v>
       </c>
       <c r="I79" s="15">
-        <v>-25269</v>
-      </c>
-      <c r="J79" s="15">
-        <v>0</v>
-      </c>
-      <c r="K79" s="15">
-        <v>0</v>
-      </c>
-      <c r="L79" s="15">
-        <v>-14020</v>
-      </c>
-      <c r="M79" s="15">
-        <v>-9735</v>
-      </c>
-      <c r="N79" s="15">
         <v>-25722</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="17">
-        <v>0</v>
-      </c>
-      <c r="F80" s="17">
-        <v>0</v>
-      </c>
-      <c r="G80" s="17">
-        <v>0</v>
-      </c>
-      <c r="H80" s="17">
-        <v>0</v>
-      </c>
-      <c r="I80" s="17">
-        <v>0</v>
-      </c>
-      <c r="J80" s="17" t="s">
+      <c r="E80" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L80" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M80" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
         <v>0</v>
       </c>
-      <c r="F81" s="15">
-        <v>0</v>
-      </c>
-      <c r="G81" s="15">
-        <v>0</v>
+      <c r="F81" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
@@ -3038,60 +2143,30 @@
       <c r="I81" s="15">
         <v>0</v>
       </c>
-      <c r="J81" s="15">
-        <v>0</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L81" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="15">
-        <v>0</v>
-      </c>
-      <c r="N81" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17">
-        <v>-1942137</v>
+        <v>-5809136</v>
       </c>
       <c r="F82" s="17">
-        <v>-2430308</v>
+        <v>-7713317</v>
       </c>
       <c r="G82" s="17">
-        <v>-4379131</v>
+        <v>-4175267</v>
       </c>
       <c r="H82" s="17">
-        <v>-4581291</v>
+        <v>-4685606</v>
       </c>
       <c r="I82" s="17">
-        <v>-3793705</v>
-      </c>
-      <c r="J82" s="17">
-        <v>-5809136</v>
-      </c>
-      <c r="K82" s="17">
-        <v>-7713317</v>
-      </c>
-      <c r="L82" s="17">
-        <v>-4175267</v>
-      </c>
-      <c r="M82" s="17">
-        <v>-4685606</v>
-      </c>
-      <c r="N82" s="17">
         <v>-6531688</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3100,13 +2175,8 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3115,13 +2185,8 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3130,15 +2195,10 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3157,23 +2217,8 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3182,15 +2227,10 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -3199,169 +2239,104 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>112034</v>
+        <v>287965</v>
       </c>
       <c r="F89" s="11">
-        <v>233247</v>
+        <v>532038</v>
       </c>
       <c r="G89" s="11">
-        <v>371340</v>
+        <v>207233</v>
       </c>
       <c r="H89" s="11">
-        <v>235191</v>
+        <v>235831</v>
       </c>
       <c r="I89" s="11">
-        <v>237865</v>
-      </c>
-      <c r="J89" s="11">
-        <v>287965</v>
-      </c>
-      <c r="K89" s="11">
-        <v>532038</v>
-      </c>
-      <c r="L89" s="11">
-        <v>207233</v>
-      </c>
-      <c r="M89" s="11">
-        <v>235831</v>
-      </c>
-      <c r="N89" s="11">
         <v>415835</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>26157</v>
+        <v>234712</v>
       </c>
       <c r="F90" s="13">
-        <v>226607</v>
+        <v>-3489</v>
       </c>
       <c r="G90" s="13">
-        <v>348576</v>
+        <v>-43919</v>
       </c>
       <c r="H90" s="13">
-        <v>166099</v>
+        <v>-98481</v>
       </c>
       <c r="I90" s="13">
-        <v>11929</v>
-      </c>
-      <c r="J90" s="13">
-        <v>234712</v>
-      </c>
-      <c r="K90" s="13">
-        <v>-3489</v>
-      </c>
-      <c r="L90" s="13">
-        <v>-43919</v>
-      </c>
-      <c r="M90" s="13">
-        <v>-98481</v>
-      </c>
-      <c r="N90" s="13">
         <v>-79093</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>193798</v>
+        <v>435943</v>
       </c>
       <c r="F91" s="11">
-        <v>307584</v>
+        <v>244492</v>
       </c>
       <c r="G91" s="11">
-        <v>351025</v>
+        <v>13440</v>
       </c>
       <c r="H91" s="11">
-        <v>148227</v>
+        <v>-89260</v>
       </c>
       <c r="I91" s="11">
-        <v>88431</v>
-      </c>
-      <c r="J91" s="11">
-        <v>435943</v>
-      </c>
-      <c r="K91" s="11">
-        <v>244492</v>
-      </c>
-      <c r="L91" s="11">
-        <v>13440</v>
-      </c>
-      <c r="M91" s="11">
-        <v>-89260</v>
-      </c>
-      <c r="N91" s="11">
         <v>-5156</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>331989</v>
+        <v>958620</v>
       </c>
       <c r="F92" s="15">
-        <v>767438</v>
+        <v>773041</v>
       </c>
       <c r="G92" s="15">
-        <v>1070941</v>
+        <v>176754</v>
       </c>
       <c r="H92" s="15">
-        <v>549517</v>
+        <v>48090</v>
       </c>
       <c r="I92" s="15">
-        <v>338225</v>
-      </c>
-      <c r="J92" s="15">
-        <v>958620</v>
-      </c>
-      <c r="K92" s="15">
-        <v>773041</v>
-      </c>
-      <c r="L92" s="15">
-        <v>176754</v>
-      </c>
-      <c r="M92" s="15">
-        <v>48090</v>
-      </c>
-      <c r="N92" s="15">
         <v>331586</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -3370,169 +2345,104 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>78873</v>
+        <v>74427</v>
       </c>
       <c r="F94" s="11">
-        <v>142792</v>
+        <v>44066</v>
       </c>
       <c r="G94" s="11">
-        <v>119813</v>
+        <v>-8937</v>
       </c>
       <c r="H94" s="11">
-        <v>29885</v>
+        <v>11519</v>
       </c>
       <c r="I94" s="11">
-        <v>1030</v>
-      </c>
-      <c r="J94" s="11">
-        <v>74427</v>
-      </c>
-      <c r="K94" s="11">
-        <v>44066</v>
-      </c>
-      <c r="L94" s="11">
-        <v>-8937</v>
-      </c>
-      <c r="M94" s="11">
-        <v>11519</v>
-      </c>
-      <c r="N94" s="11">
         <v>56221</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>80420</v>
+        <v>67440</v>
       </c>
       <c r="F95" s="13">
-        <v>172984</v>
+        <v>68037</v>
       </c>
       <c r="G95" s="13">
-        <v>175701</v>
+        <v>9765</v>
       </c>
       <c r="H95" s="13">
-        <v>58901</v>
+        <v>-158500</v>
       </c>
       <c r="I95" s="13">
-        <v>49339</v>
-      </c>
-      <c r="J95" s="13">
-        <v>67440</v>
-      </c>
-      <c r="K95" s="13">
-        <v>68037</v>
-      </c>
-      <c r="L95" s="13">
-        <v>9765</v>
-      </c>
-      <c r="M95" s="13">
-        <v>-158500</v>
-      </c>
-      <c r="N95" s="13">
         <v>31351</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>3574</v>
+        <v>2658</v>
       </c>
       <c r="F96" s="11">
-        <v>10678</v>
+        <v>17965</v>
       </c>
       <c r="G96" s="11">
-        <v>10986</v>
+        <v>-7152</v>
       </c>
       <c r="H96" s="11">
-        <v>-808</v>
+        <v>21309</v>
       </c>
       <c r="I96" s="11">
-        <v>-31</v>
-      </c>
-      <c r="J96" s="11">
-        <v>2658</v>
-      </c>
-      <c r="K96" s="11">
-        <v>17965</v>
-      </c>
-      <c r="L96" s="11">
-        <v>-7152</v>
-      </c>
-      <c r="M96" s="11">
-        <v>21309</v>
-      </c>
-      <c r="N96" s="11">
         <v>-6766</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>162867</v>
+        <v>144525</v>
       </c>
       <c r="F97" s="15">
-        <v>326454</v>
+        <v>130068</v>
       </c>
       <c r="G97" s="15">
-        <v>306500</v>
+        <v>-6324</v>
       </c>
       <c r="H97" s="15">
-        <v>87978</v>
+        <v>-125672</v>
       </c>
       <c r="I97" s="15">
-        <v>50338</v>
-      </c>
-      <c r="J97" s="15">
-        <v>144525</v>
-      </c>
-      <c r="K97" s="15">
-        <v>130068</v>
-      </c>
-      <c r="L97" s="15">
-        <v>-6324</v>
-      </c>
-      <c r="M97" s="15">
-        <v>-125672</v>
-      </c>
-      <c r="N97" s="15">
         <v>80806</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -3541,122 +2451,72 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>18868</v>
+        <v>39300</v>
       </c>
       <c r="F99" s="11">
-        <v>21139</v>
+        <v>36241</v>
       </c>
       <c r="G99" s="11">
-        <v>33401</v>
+        <v>11429</v>
       </c>
       <c r="H99" s="11">
-        <v>36329</v>
+        <v>8160</v>
       </c>
       <c r="I99" s="11">
-        <v>14418</v>
-      </c>
-      <c r="J99" s="11">
-        <v>39300</v>
-      </c>
-      <c r="K99" s="11">
-        <v>36241</v>
-      </c>
-      <c r="L99" s="11">
-        <v>11429</v>
-      </c>
-      <c r="M99" s="11">
-        <v>8160</v>
-      </c>
-      <c r="N99" s="11">
         <v>-4663</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>18868</v>
+        <v>39300</v>
       </c>
       <c r="F100" s="15">
-        <v>21139</v>
+        <v>36241</v>
       </c>
       <c r="G100" s="15">
-        <v>33401</v>
+        <v>11429</v>
       </c>
       <c r="H100" s="15">
-        <v>36329</v>
+        <v>8160</v>
       </c>
       <c r="I100" s="15">
-        <v>14418</v>
-      </c>
-      <c r="J100" s="15">
-        <v>39300</v>
-      </c>
-      <c r="K100" s="15">
-        <v>36241</v>
-      </c>
-      <c r="L100" s="15">
-        <v>11429</v>
-      </c>
-      <c r="M100" s="15">
-        <v>8160</v>
-      </c>
-      <c r="N100" s="15">
         <v>-4663</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17">
-        <v>513724</v>
+        <v>1142445</v>
       </c>
       <c r="F101" s="17">
-        <v>1115031</v>
+        <v>939350</v>
       </c>
       <c r="G101" s="17">
-        <v>1410842</v>
+        <v>181859</v>
       </c>
       <c r="H101" s="17">
-        <v>673824</v>
+        <v>-69422</v>
       </c>
       <c r="I101" s="17">
-        <v>402981</v>
-      </c>
-      <c r="J101" s="17">
-        <v>1142445</v>
-      </c>
-      <c r="K101" s="17">
-        <v>939350</v>
-      </c>
-      <c r="L101" s="17">
-        <v>181859</v>
-      </c>
-      <c r="M101" s="17">
-        <v>-69422</v>
-      </c>
-      <c r="N101" s="17">
         <v>407729</v>
       </c>
     </row>

--- a/database/industries/shoyande/shepaksa/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/shepaksa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shepaksa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF47FF-F681-4CBF-9D22-50DF047F284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133CA9A9-CD1F-4C87-A26F-9748434861BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,7 +681,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -857,37 +857,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>5172</v>
+        <v>9159</v>
       </c>
       <c r="F11" s="11">
-        <v>9159</v>
+        <v>6450</v>
       </c>
       <c r="G11" s="11">
-        <v>6450</v>
+        <v>5349</v>
       </c>
       <c r="H11" s="11">
-        <v>5349</v>
+        <v>6179</v>
       </c>
       <c r="I11" s="11">
-        <v>6179</v>
+        <v>9282</v>
       </c>
       <c r="J11" s="11">
-        <v>9282</v>
+        <v>3507</v>
       </c>
       <c r="K11" s="11">
-        <v>3507</v>
+        <v>2809</v>
       </c>
       <c r="L11" s="11">
-        <v>2809</v>
+        <v>3818</v>
       </c>
       <c r="M11" s="11">
-        <v>3818</v>
+        <v>3503</v>
       </c>
       <c r="N11" s="11">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -896,37 +896,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>9183</v>
+        <v>14469</v>
       </c>
       <c r="F12" s="13">
-        <v>14469</v>
+        <v>9621</v>
       </c>
       <c r="G12" s="13">
-        <v>9621</v>
+        <v>5559</v>
       </c>
       <c r="H12" s="13">
-        <v>5559</v>
+        <v>12607</v>
       </c>
       <c r="I12" s="13">
-        <v>12607</v>
+        <v>15245</v>
       </c>
       <c r="J12" s="13">
-        <v>15245</v>
+        <v>5760</v>
       </c>
       <c r="K12" s="13">
-        <v>5760</v>
+        <v>7215</v>
       </c>
       <c r="L12" s="13">
-        <v>7215</v>
+        <v>6154</v>
       </c>
       <c r="M12" s="13">
-        <v>6154</v>
+        <v>8125</v>
       </c>
       <c r="N12" s="13">
-        <v>8125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -935,74 +935,74 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4593</v>
+        <v>6950</v>
       </c>
       <c r="F13" s="11">
-        <v>6950</v>
+        <v>6336</v>
       </c>
       <c r="G13" s="11">
-        <v>6336</v>
+        <v>4224</v>
       </c>
       <c r="H13" s="11">
-        <v>4224</v>
+        <v>6501</v>
       </c>
       <c r="I13" s="11">
-        <v>6501</v>
+        <v>7323</v>
       </c>
       <c r="J13" s="11">
-        <v>7323</v>
+        <v>3461</v>
       </c>
       <c r="K13" s="11">
-        <v>3461</v>
+        <v>3741</v>
       </c>
       <c r="L13" s="11">
-        <v>3741</v>
+        <v>4341</v>
       </c>
       <c r="M13" s="11">
-        <v>4341</v>
+        <v>4503</v>
       </c>
       <c r="N13" s="11">
-        <v>4503</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>18948</v>
+        <v>30578</v>
       </c>
       <c r="F14" s="15">
-        <v>30578</v>
+        <v>22407</v>
       </c>
       <c r="G14" s="15">
-        <v>22407</v>
+        <v>15132</v>
       </c>
       <c r="H14" s="15">
-        <v>15132</v>
+        <v>25287</v>
       </c>
       <c r="I14" s="15">
-        <v>25287</v>
+        <v>31850</v>
       </c>
       <c r="J14" s="15">
-        <v>31850</v>
+        <v>12728</v>
       </c>
       <c r="K14" s="15">
-        <v>12728</v>
+        <v>13765</v>
       </c>
       <c r="L14" s="15">
-        <v>13765</v>
+        <v>14313</v>
       </c>
       <c r="M14" s="15">
-        <v>14313</v>
+        <v>16131</v>
       </c>
       <c r="N14" s="15">
-        <v>16131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14217</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1028,37 +1028,37 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>3474</v>
+        <v>2865</v>
       </c>
       <c r="F16" s="11">
-        <v>2865</v>
+        <v>1318</v>
       </c>
       <c r="G16" s="11">
-        <v>1318</v>
+        <v>2300</v>
       </c>
       <c r="H16" s="11">
-        <v>2300</v>
+        <v>1922</v>
       </c>
       <c r="I16" s="11">
-        <v>1922</v>
+        <v>2087</v>
       </c>
       <c r="J16" s="11">
-        <v>2087</v>
+        <v>2621</v>
       </c>
       <c r="K16" s="11">
-        <v>2621</v>
+        <v>1134</v>
       </c>
       <c r="L16" s="11">
-        <v>1134</v>
+        <v>1622</v>
       </c>
       <c r="M16" s="11">
-        <v>1622</v>
+        <v>1380</v>
       </c>
       <c r="N16" s="11">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
@@ -1067,37 +1067,37 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>6156</v>
+        <v>5445</v>
       </c>
       <c r="F17" s="13">
-        <v>5445</v>
+        <v>5382</v>
       </c>
       <c r="G17" s="13">
-        <v>5382</v>
+        <v>6372</v>
       </c>
       <c r="H17" s="13">
-        <v>6372</v>
+        <v>5766</v>
       </c>
       <c r="I17" s="13">
-        <v>5766</v>
+        <v>6628</v>
       </c>
       <c r="J17" s="13">
-        <v>6628</v>
+        <v>3636</v>
       </c>
       <c r="K17" s="13">
-        <v>3636</v>
+        <v>7443</v>
       </c>
       <c r="L17" s="13">
-        <v>7443</v>
+        <v>14119</v>
       </c>
       <c r="M17" s="13">
-        <v>14119</v>
+        <v>8995</v>
       </c>
       <c r="N17" s="13">
-        <v>8995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1106,74 +1106,74 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="F18" s="11">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="G18" s="11">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H18" s="11">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I18" s="11">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="J18" s="11">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="K18" s="11">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="L18" s="11">
-        <v>352</v>
+        <v>643</v>
       </c>
       <c r="M18" s="11">
-        <v>643</v>
+        <v>61</v>
       </c>
       <c r="N18" s="11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>9869</v>
+        <v>8454</v>
       </c>
       <c r="F19" s="15">
-        <v>8454</v>
+        <v>6723</v>
       </c>
       <c r="G19" s="15">
-        <v>6723</v>
+        <v>8690</v>
       </c>
       <c r="H19" s="15">
-        <v>8690</v>
+        <v>7791</v>
       </c>
       <c r="I19" s="15">
-        <v>7791</v>
+        <v>9064</v>
       </c>
       <c r="J19" s="15">
-        <v>9064</v>
+        <v>6489</v>
       </c>
       <c r="K19" s="15">
-        <v>6489</v>
+        <v>8929</v>
       </c>
       <c r="L19" s="15">
-        <v>8929</v>
+        <v>16384</v>
       </c>
       <c r="M19" s="15">
-        <v>16384</v>
+        <v>10436</v>
       </c>
       <c r="N19" s="15">
-        <v>10436</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -1199,37 +1199,37 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>-5470</v>
       </c>
       <c r="F21" s="11">
-        <v>-5470</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>-2206</v>
       </c>
       <c r="H21" s="11">
-        <v>-2206</v>
+        <v>1478</v>
       </c>
       <c r="I21" s="11">
-        <v>1478</v>
+        <v>1359</v>
       </c>
       <c r="J21" s="11">
-        <v>1359</v>
+        <v>845</v>
       </c>
       <c r="K21" s="11">
-        <v>845</v>
+        <v>519</v>
       </c>
       <c r="L21" s="11">
-        <v>519</v>
-      </c>
-      <c r="M21" s="11">
         <v>608</v>
       </c>
+      <c r="M21" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N21" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1261,51 +1261,51 @@
       <c r="L22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>24</v>
+      <c r="M22" s="13">
+        <v>2759</v>
       </c>
       <c r="N22" s="13">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>-5470</v>
       </c>
       <c r="F23" s="17">
-        <v>-5470</v>
+        <v>0</v>
       </c>
       <c r="G23" s="17">
-        <v>0</v>
+        <v>-2206</v>
       </c>
       <c r="H23" s="17">
-        <v>-2206</v>
+        <v>1478</v>
       </c>
       <c r="I23" s="17">
-        <v>1478</v>
+        <v>1359</v>
       </c>
       <c r="J23" s="17">
-        <v>1359</v>
+        <v>845</v>
       </c>
       <c r="K23" s="17">
-        <v>845</v>
+        <v>519</v>
       </c>
       <c r="L23" s="17">
-        <v>519</v>
+        <v>608</v>
       </c>
       <c r="M23" s="17">
-        <v>608</v>
+        <v>2759</v>
       </c>
       <c r="N23" s="17">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1322,8 +1322,8 @@
       <c r="G24" s="15">
         <v>0</v>
       </c>
-      <c r="H24" s="15">
-        <v>0</v>
+      <c r="H24" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>24</v>
@@ -1344,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
@@ -1362,14 +1362,14 @@
       <c r="H25" s="17">
         <v>0</v>
       </c>
-      <c r="I25" s="17">
-        <v>0</v>
+      <c r="I25" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>24</v>
+      <c r="K25" s="17">
+        <v>0</v>
       </c>
       <c r="L25" s="17">
         <v>0</v>
@@ -1381,44 +1381,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15">
-        <v>28817</v>
+        <v>33562</v>
       </c>
       <c r="F26" s="15">
-        <v>33562</v>
+        <v>29130</v>
       </c>
       <c r="G26" s="15">
-        <v>29130</v>
+        <v>21616</v>
       </c>
       <c r="H26" s="15">
-        <v>21616</v>
+        <v>34556</v>
       </c>
       <c r="I26" s="15">
-        <v>34556</v>
+        <v>42273</v>
       </c>
       <c r="J26" s="15">
-        <v>42273</v>
+        <v>20062</v>
       </c>
       <c r="K26" s="15">
-        <v>20062</v>
+        <v>23213</v>
       </c>
       <c r="L26" s="15">
-        <v>23213</v>
+        <v>31305</v>
       </c>
       <c r="M26" s="15">
-        <v>31305</v>
+        <v>29326</v>
       </c>
       <c r="N26" s="15">
-        <v>29326</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24576</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1433,7 +1433,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1515,7 +1515,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1541,37 +1541,37 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>813571</v>
+        <v>1374776</v>
       </c>
       <c r="F33" s="11">
-        <v>1374776</v>
+        <v>1488707</v>
       </c>
       <c r="G33" s="11">
-        <v>1488707</v>
+        <v>1372659</v>
       </c>
       <c r="H33" s="11">
-        <v>1372659</v>
+        <v>1743708</v>
       </c>
       <c r="I33" s="11">
-        <v>1743708</v>
+        <v>2799061</v>
       </c>
       <c r="J33" s="11">
-        <v>2799061</v>
+        <v>1108636</v>
       </c>
       <c r="K33" s="11">
-        <v>1108636</v>
+        <v>1077066</v>
       </c>
       <c r="L33" s="11">
-        <v>1077066</v>
+        <v>1739842</v>
       </c>
       <c r="M33" s="11">
-        <v>1739842</v>
+        <v>1269607</v>
       </c>
       <c r="N33" s="11">
-        <v>1269607</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>879191</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>18</v>
       </c>
@@ -1580,37 +1580,37 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>882849</v>
+        <v>1743038</v>
       </c>
       <c r="F34" s="13">
-        <v>1743038</v>
+        <v>1318369</v>
       </c>
       <c r="G34" s="13">
-        <v>1318369</v>
+        <v>744059</v>
       </c>
       <c r="H34" s="13">
-        <v>744059</v>
+        <v>2055009</v>
       </c>
       <c r="I34" s="13">
-        <v>2055009</v>
+        <v>2365801</v>
       </c>
       <c r="J34" s="13">
-        <v>2365801</v>
+        <v>956709</v>
       </c>
       <c r="K34" s="13">
-        <v>956709</v>
+        <v>1236229</v>
       </c>
       <c r="L34" s="13">
-        <v>1236229</v>
+        <v>1389603</v>
       </c>
       <c r="M34" s="13">
-        <v>1389603</v>
+        <v>1778117</v>
       </c>
       <c r="N34" s="13">
-        <v>1778117</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1591750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1619,74 +1619,74 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>920348</v>
+        <v>1788522</v>
       </c>
       <c r="F35" s="11">
-        <v>1788522</v>
+        <v>1818110</v>
       </c>
       <c r="G35" s="11">
-        <v>1818110</v>
+        <v>1221209</v>
       </c>
       <c r="H35" s="11">
-        <v>1221209</v>
+        <v>2205991</v>
       </c>
       <c r="I35" s="11">
-        <v>2205991</v>
+        <v>2546224</v>
       </c>
       <c r="J35" s="11">
-        <v>2546224</v>
+        <v>1257623</v>
       </c>
       <c r="K35" s="11">
-        <v>1257623</v>
+        <v>1436935</v>
       </c>
       <c r="L35" s="11">
-        <v>1436935</v>
+        <v>1916784</v>
       </c>
       <c r="M35" s="11">
-        <v>1916784</v>
+        <v>2182135</v>
       </c>
       <c r="N35" s="11">
-        <v>2182135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2434111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15">
-        <v>2616768</v>
+        <v>4906336</v>
       </c>
       <c r="F36" s="15">
-        <v>4906336</v>
+        <v>4625186</v>
       </c>
       <c r="G36" s="15">
-        <v>4625186</v>
+        <v>3337927</v>
       </c>
       <c r="H36" s="15">
-        <v>3337927</v>
+        <v>6004708</v>
       </c>
       <c r="I36" s="15">
-        <v>6004708</v>
+        <v>7711086</v>
       </c>
       <c r="J36" s="15">
-        <v>7711086</v>
+        <v>3322968</v>
       </c>
       <c r="K36" s="15">
-        <v>3322968</v>
+        <v>3750230</v>
       </c>
       <c r="L36" s="15">
-        <v>3750230</v>
+        <v>5046229</v>
       </c>
       <c r="M36" s="15">
-        <v>5046229</v>
+        <v>5229859</v>
       </c>
       <c r="N36" s="15">
-        <v>5229859</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4905052</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
@@ -1712,37 +1712,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>516803</v>
+        <v>459674</v>
       </c>
       <c r="F38" s="11">
-        <v>459674</v>
+        <v>290586</v>
       </c>
       <c r="G38" s="11">
-        <v>290586</v>
+        <v>434829</v>
       </c>
       <c r="H38" s="11">
-        <v>434829</v>
+        <v>500686</v>
       </c>
       <c r="I38" s="11">
-        <v>500686</v>
+        <v>338102</v>
       </c>
       <c r="J38" s="11">
-        <v>338102</v>
+        <v>688098</v>
       </c>
       <c r="K38" s="11">
-        <v>688098</v>
+        <v>299016</v>
       </c>
       <c r="L38" s="11">
-        <v>299016</v>
+        <v>409992</v>
       </c>
       <c r="M38" s="11">
-        <v>409992</v>
+        <v>189515</v>
       </c>
       <c r="N38" s="11">
-        <v>189515</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>397192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>18</v>
       </c>
@@ -1751,37 +1751,37 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>344413</v>
+        <v>353038</v>
       </c>
       <c r="F39" s="13">
-        <v>353038</v>
+        <v>284993</v>
       </c>
       <c r="G39" s="13">
-        <v>284993</v>
+        <v>379963</v>
       </c>
       <c r="H39" s="13">
-        <v>379963</v>
+        <v>380596</v>
       </c>
       <c r="I39" s="13">
-        <v>380596</v>
+        <v>467146</v>
       </c>
       <c r="J39" s="13">
-        <v>467146</v>
+        <v>242300</v>
       </c>
       <c r="K39" s="13">
-        <v>242300</v>
+        <v>417570</v>
       </c>
       <c r="L39" s="13">
-        <v>417570</v>
+        <v>1177608</v>
       </c>
       <c r="M39" s="13">
-        <v>1177608</v>
+        <v>878380</v>
       </c>
       <c r="N39" s="13">
-        <v>878380</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>894044</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1790,74 +1790,74 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>33689</v>
+        <v>26141</v>
       </c>
       <c r="F40" s="11">
-        <v>26141</v>
+        <v>4036</v>
       </c>
       <c r="G40" s="11">
-        <v>4036</v>
+        <v>4280</v>
       </c>
       <c r="H40" s="11">
-        <v>4280</v>
+        <v>26291</v>
       </c>
       <c r="I40" s="11">
-        <v>26291</v>
+        <v>100092</v>
       </c>
       <c r="J40" s="11">
-        <v>100092</v>
+        <v>78311</v>
       </c>
       <c r="K40" s="11">
-        <v>78311</v>
+        <v>131473</v>
       </c>
       <c r="L40" s="11">
-        <v>131473</v>
+        <v>284529</v>
       </c>
       <c r="M40" s="11">
-        <v>284529</v>
+        <v>-10319</v>
       </c>
       <c r="N40" s="11">
-        <v>-10319</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32017</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>894905</v>
+        <v>838853</v>
       </c>
       <c r="F41" s="15">
-        <v>838853</v>
+        <v>579615</v>
       </c>
       <c r="G41" s="15">
-        <v>579615</v>
+        <v>819072</v>
       </c>
       <c r="H41" s="15">
-        <v>819072</v>
+        <v>907573</v>
       </c>
       <c r="I41" s="15">
-        <v>907573</v>
+        <v>905340</v>
       </c>
       <c r="J41" s="15">
-        <v>905340</v>
+        <v>1008709</v>
       </c>
       <c r="K41" s="15">
-        <v>1008709</v>
+        <v>848059</v>
       </c>
       <c r="L41" s="15">
-        <v>848059</v>
+        <v>1872129</v>
       </c>
       <c r="M41" s="15">
-        <v>1872129</v>
+        <v>1057576</v>
       </c>
       <c r="N41" s="15">
-        <v>1057576</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1323253</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>35</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
@@ -1883,37 +1883,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>33666</v>
+        <v>44784</v>
       </c>
       <c r="F43" s="11">
-        <v>44784</v>
+        <v>50314</v>
       </c>
       <c r="G43" s="11">
-        <v>50314</v>
+        <v>39687</v>
       </c>
       <c r="H43" s="11">
-        <v>39687</v>
+        <v>39300</v>
       </c>
       <c r="I43" s="11">
-        <v>39300</v>
+        <v>36241</v>
       </c>
       <c r="J43" s="11">
-        <v>36241</v>
+        <v>25449</v>
       </c>
       <c r="K43" s="11">
-        <v>25449</v>
+        <v>17895</v>
       </c>
       <c r="L43" s="11">
-        <v>17895</v>
-      </c>
-      <c r="M43" s="11">
         <v>21059</v>
       </c>
+      <c r="M43" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N43" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
@@ -1945,51 +1945,51 @@
       <c r="L44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="13" t="s">
-        <v>24</v>
+      <c r="M44" s="13">
+        <v>130621</v>
       </c>
       <c r="N44" s="13">
-        <v>130621</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>129789</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>33666</v>
+        <v>44784</v>
       </c>
       <c r="F45" s="17">
-        <v>44784</v>
+        <v>50314</v>
       </c>
       <c r="G45" s="17">
-        <v>50314</v>
+        <v>39687</v>
       </c>
       <c r="H45" s="17">
-        <v>39687</v>
+        <v>39300</v>
       </c>
       <c r="I45" s="17">
-        <v>39300</v>
+        <v>36241</v>
       </c>
       <c r="J45" s="17">
-        <v>36241</v>
+        <v>25449</v>
       </c>
       <c r="K45" s="17">
-        <v>25449</v>
+        <v>17895</v>
       </c>
       <c r="L45" s="17">
-        <v>17895</v>
+        <v>21059</v>
       </c>
       <c r="M45" s="17">
-        <v>21059</v>
+        <v>130621</v>
       </c>
       <c r="N45" s="17">
-        <v>130621</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>129789</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
@@ -2006,8 +2006,8 @@
       <c r="G46" s="15">
         <v>0</v>
       </c>
-      <c r="H46" s="15">
-        <v>0</v>
+      <c r="H46" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>24</v>
@@ -2028,7 +2028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>29</v>
       </c>
@@ -2048,14 +2048,14 @@
       <c r="H47" s="17">
         <v>0</v>
       </c>
-      <c r="I47" s="17">
-        <v>0</v>
+      <c r="I47" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="J47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>24</v>
+      <c r="K47" s="17">
+        <v>0</v>
       </c>
       <c r="L47" s="17">
         <v>0</v>
@@ -2067,44 +2067,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>3545339</v>
+        <v>5789973</v>
       </c>
       <c r="F48" s="15">
-        <v>5789973</v>
+        <v>5255115</v>
       </c>
       <c r="G48" s="15">
-        <v>5255115</v>
+        <v>4196686</v>
       </c>
       <c r="H48" s="15">
-        <v>4196686</v>
+        <v>6951581</v>
       </c>
       <c r="I48" s="15">
-        <v>6951581</v>
+        <v>8652667</v>
       </c>
       <c r="J48" s="15">
-        <v>8652667</v>
+        <v>4357126</v>
       </c>
       <c r="K48" s="15">
-        <v>4357126</v>
+        <v>4616184</v>
       </c>
       <c r="L48" s="15">
-        <v>4616184</v>
+        <v>6939417</v>
       </c>
       <c r="M48" s="15">
-        <v>6939417</v>
+        <v>6418056</v>
       </c>
       <c r="N48" s="15">
-        <v>6418056</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6358094</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2119,7 +2119,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2134,7 +2134,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>37</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2227,37 +2227,37 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>157302978</v>
+        <v>150101103</v>
       </c>
       <c r="F55" s="11">
-        <v>150101103</v>
+        <v>230807287</v>
       </c>
       <c r="G55" s="11">
-        <v>230807287</v>
+        <v>256619742</v>
       </c>
       <c r="H55" s="11">
-        <v>256619742</v>
+        <v>282199061</v>
       </c>
       <c r="I55" s="11">
-        <v>282199061</v>
+        <v>301557962</v>
       </c>
       <c r="J55" s="11">
-        <v>301557962</v>
+        <v>316120901</v>
       </c>
       <c r="K55" s="11">
-        <v>316120901</v>
+        <v>383433962</v>
       </c>
       <c r="L55" s="11">
-        <v>383433962</v>
+        <v>455694605</v>
       </c>
       <c r="M55" s="11">
-        <v>455694605</v>
+        <v>362434199</v>
       </c>
       <c r="N55" s="11">
-        <v>362434199</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>362254223</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -2266,37 +2266,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>96139497</v>
+        <v>120467068</v>
       </c>
       <c r="F56" s="13">
-        <v>120467068</v>
+        <v>137030350</v>
       </c>
       <c r="G56" s="13">
-        <v>137030350</v>
+        <v>133847634</v>
       </c>
       <c r="H56" s="13">
-        <v>133847634</v>
+        <v>163005394</v>
       </c>
       <c r="I56" s="13">
-        <v>163005394</v>
+        <v>155185372</v>
       </c>
       <c r="J56" s="13">
-        <v>155185372</v>
+        <v>166095313</v>
       </c>
       <c r="K56" s="13">
-        <v>166095313</v>
+        <v>171341511</v>
       </c>
       <c r="L56" s="13">
-        <v>171341511</v>
+        <v>225804842</v>
       </c>
       <c r="M56" s="13">
-        <v>225804842</v>
+        <v>218845169</v>
       </c>
       <c r="N56" s="13">
-        <v>218845169</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>221322303</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>19</v>
       </c>
@@ -2305,37 +2305,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>200380579</v>
+        <v>257341295</v>
       </c>
       <c r="F57" s="11">
-        <v>257341295</v>
+        <v>286949179</v>
       </c>
       <c r="G57" s="11">
-        <v>286949179</v>
+        <v>289111979</v>
       </c>
       <c r="H57" s="11">
-        <v>289111979</v>
+        <v>339331026</v>
       </c>
       <c r="I57" s="11">
-        <v>339331026</v>
+        <v>347702308</v>
       </c>
       <c r="J57" s="11">
-        <v>347702308</v>
+        <v>363369835</v>
       </c>
       <c r="K57" s="11">
-        <v>363369835</v>
+        <v>384104518</v>
       </c>
       <c r="L57" s="11">
-        <v>384104518</v>
+        <v>441553559</v>
       </c>
       <c r="M57" s="11">
-        <v>441553559</v>
+        <v>484595825</v>
       </c>
       <c r="N57" s="11">
-        <v>484595825</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>529384732</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2361,37 +2361,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>148763097</v>
+        <v>160444677</v>
       </c>
       <c r="F59" s="11">
-        <v>160444677</v>
+        <v>220474962</v>
       </c>
       <c r="G59" s="11">
-        <v>220474962</v>
+        <v>189056087</v>
       </c>
       <c r="H59" s="11">
-        <v>189056087</v>
+        <v>260502601</v>
       </c>
       <c r="I59" s="11">
-        <v>260502601</v>
+        <v>162003833</v>
       </c>
       <c r="J59" s="11">
-        <v>162003833</v>
+        <v>262532621</v>
       </c>
       <c r="K59" s="11">
-        <v>262532621</v>
+        <v>263682540</v>
       </c>
       <c r="L59" s="11">
-        <v>263682540</v>
+        <v>252769420</v>
       </c>
       <c r="M59" s="11">
-        <v>252769420</v>
+        <v>137329710</v>
       </c>
       <c r="N59" s="11">
-        <v>137329710</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>308139643</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>18</v>
       </c>
@@ -2400,37 +2400,37 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>55947531</v>
+        <v>64837098</v>
       </c>
       <c r="F60" s="13">
-        <v>64837098</v>
+        <v>52952991</v>
       </c>
       <c r="G60" s="13">
-        <v>52952991</v>
+        <v>59630100</v>
       </c>
       <c r="H60" s="13">
-        <v>59630100</v>
+        <v>66006937</v>
       </c>
       <c r="I60" s="13">
-        <v>66006937</v>
+        <v>70480688</v>
       </c>
       <c r="J60" s="13">
-        <v>70480688</v>
+        <v>66639164</v>
       </c>
       <c r="K60" s="13">
-        <v>66639164</v>
+        <v>56102378</v>
       </c>
       <c r="L60" s="13">
-        <v>56102378</v>
+        <v>83405907</v>
       </c>
       <c r="M60" s="13">
-        <v>83405907</v>
+        <v>97652029</v>
       </c>
       <c r="N60" s="13">
-        <v>97652029</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>133320012</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
@@ -2439,37 +2439,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>140958159</v>
+        <v>181534722</v>
       </c>
       <c r="F61" s="11">
-        <v>181534722</v>
+        <v>175478261</v>
       </c>
       <c r="G61" s="11">
-        <v>175478261</v>
+        <v>237777778</v>
       </c>
       <c r="H61" s="11">
-        <v>237777778</v>
+        <v>255252427</v>
       </c>
       <c r="I61" s="11">
-        <v>255252427</v>
+        <v>286796562</v>
       </c>
       <c r="J61" s="11">
-        <v>286796562</v>
+        <v>337547414</v>
       </c>
       <c r="K61" s="11">
-        <v>337547414</v>
+        <v>373502841</v>
       </c>
       <c r="L61" s="11">
-        <v>373502841</v>
+        <v>442502333</v>
       </c>
       <c r="M61" s="11">
-        <v>442502333</v>
+        <v>169163934</v>
       </c>
       <c r="N61" s="11">
-        <v>169163934</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>508206349</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>25</v>
       </c>
@@ -2557,14 +2557,14 @@
       <c r="L64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M64" s="13">
+        <v>47343603</v>
+      </c>
+      <c r="N64" s="13">
+        <v>56405476</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2594,7 +2594,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>41</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2661,7 +2661,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2687,37 +2687,37 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-580324</v>
+        <v>-1003436</v>
       </c>
       <c r="F71" s="11">
-        <v>-1003436</v>
+        <v>-1253516</v>
       </c>
       <c r="G71" s="11">
-        <v>-1253516</v>
+        <v>-1134794</v>
       </c>
       <c r="H71" s="11">
-        <v>-1134794</v>
+        <v>-1455743</v>
       </c>
       <c r="I71" s="11">
-        <v>-1455743</v>
+        <v>-2267023</v>
       </c>
       <c r="J71" s="11">
-        <v>-2267023</v>
+        <v>-901403</v>
       </c>
       <c r="K71" s="11">
-        <v>-901403</v>
+        <v>-841235</v>
       </c>
       <c r="L71" s="11">
-        <v>-841235</v>
+        <v>-1324007</v>
       </c>
       <c r="M71" s="11">
-        <v>-1324007</v>
+        <v>-1054995</v>
       </c>
       <c r="N71" s="11">
-        <v>-1054995</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-787475</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>18</v>
       </c>
@@ -2726,37 +2726,37 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>-656242</v>
+        <v>-1394462</v>
       </c>
       <c r="F72" s="13">
-        <v>-1394462</v>
+        <v>-1152270</v>
       </c>
       <c r="G72" s="13">
-        <v>-1152270</v>
+        <v>-732130</v>
       </c>
       <c r="H72" s="13">
-        <v>-732130</v>
+        <v>-1820297</v>
       </c>
       <c r="I72" s="13">
-        <v>-1820297</v>
+        <v>-2369290</v>
       </c>
       <c r="J72" s="13">
-        <v>-2369290</v>
+        <v>-1000628</v>
       </c>
       <c r="K72" s="13">
-        <v>-1000628</v>
+        <v>-1334710</v>
       </c>
       <c r="L72" s="13">
-        <v>-1334710</v>
+        <v>-1468696</v>
       </c>
       <c r="M72" s="13">
-        <v>-1468696</v>
+        <v>-1780783</v>
       </c>
       <c r="N72" s="13">
-        <v>-1780783</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1617819</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>19</v>
       </c>
@@ -2765,74 +2765,74 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>-612764</v>
+        <v>-1437497</v>
       </c>
       <c r="F73" s="11">
-        <v>-1437497</v>
+        <v>-1669883</v>
       </c>
       <c r="G73" s="11">
-        <v>-1669883</v>
+        <v>-1132778</v>
       </c>
       <c r="H73" s="11">
-        <v>-1132778</v>
+        <v>-1770048</v>
       </c>
       <c r="I73" s="11">
-        <v>-1770048</v>
+        <v>-2301732</v>
       </c>
       <c r="J73" s="11">
-        <v>-2301732</v>
+        <v>-1244183</v>
       </c>
       <c r="K73" s="11">
-        <v>-1244183</v>
+        <v>-1526195</v>
       </c>
       <c r="L73" s="11">
-        <v>-1526195</v>
+        <v>-1921940</v>
       </c>
       <c r="M73" s="11">
-        <v>-1921940</v>
+        <v>-1979529</v>
       </c>
       <c r="N73" s="11">
-        <v>-1979529</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2414947</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>-1849330</v>
+        <v>-3835395</v>
       </c>
       <c r="F74" s="15">
-        <v>-3835395</v>
+        <v>-4075669</v>
       </c>
       <c r="G74" s="15">
-        <v>-4075669</v>
+        <v>-2999702</v>
       </c>
       <c r="H74" s="15">
-        <v>-2999702</v>
+        <v>-5046088</v>
       </c>
       <c r="I74" s="15">
-        <v>-5046088</v>
+        <v>-6938045</v>
       </c>
       <c r="J74" s="15">
-        <v>-6938045</v>
+        <v>-3146214</v>
       </c>
       <c r="K74" s="15">
-        <v>-3146214</v>
+        <v>-3702140</v>
       </c>
       <c r="L74" s="15">
-        <v>-3702140</v>
+        <v>-4714643</v>
       </c>
       <c r="M74" s="15">
-        <v>-4714643</v>
+        <v>-4815307</v>
       </c>
       <c r="N74" s="15">
-        <v>-4815307</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4820241</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>44</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2858,37 +2858,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-374011</v>
+        <v>-339861</v>
       </c>
       <c r="F76" s="11">
-        <v>-339861</v>
+        <v>-260701</v>
       </c>
       <c r="G76" s="11">
-        <v>-260701</v>
+        <v>-433799</v>
       </c>
       <c r="H76" s="11">
-        <v>-433799</v>
+        <v>-426259</v>
       </c>
       <c r="I76" s="11">
-        <v>-426259</v>
+        <v>-294036</v>
       </c>
       <c r="J76" s="11">
-        <v>-294036</v>
+        <v>-697035</v>
       </c>
       <c r="K76" s="11">
-        <v>-697035</v>
+        <v>-287497</v>
       </c>
       <c r="L76" s="11">
-        <v>-287497</v>
+        <v>-353771</v>
       </c>
       <c r="M76" s="11">
-        <v>-353771</v>
+        <v>-243212</v>
       </c>
       <c r="N76" s="11">
-        <v>-243212</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-306304</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>18</v>
       </c>
@@ -2897,37 +2897,37 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-171429</v>
+        <v>-177337</v>
       </c>
       <c r="F77" s="13">
-        <v>-177337</v>
+        <v>-226092</v>
       </c>
       <c r="G77" s="13">
-        <v>-226092</v>
+        <v>-330624</v>
       </c>
       <c r="H77" s="13">
-        <v>-330624</v>
+        <v>-313156</v>
       </c>
       <c r="I77" s="13">
-        <v>-313156</v>
+        <v>-399109</v>
       </c>
       <c r="J77" s="13">
-        <v>-399109</v>
+        <v>-232535</v>
       </c>
       <c r="K77" s="13">
-        <v>-232535</v>
+        <v>-576070</v>
       </c>
       <c r="L77" s="13">
-        <v>-576070</v>
+        <v>-1146257</v>
       </c>
       <c r="M77" s="13">
-        <v>-1146257</v>
+        <v>-757789</v>
       </c>
       <c r="N77" s="13">
-        <v>-757789</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-635190</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2936,74 +2936,74 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-23011</v>
+        <v>-15155</v>
       </c>
       <c r="F78" s="11">
-        <v>-15155</v>
+        <v>-4844</v>
       </c>
       <c r="G78" s="11">
-        <v>-4844</v>
+        <v>-4311</v>
       </c>
       <c r="H78" s="11">
-        <v>-4311</v>
+        <v>-23633</v>
       </c>
       <c r="I78" s="11">
-        <v>-23633</v>
+        <v>-82127</v>
       </c>
       <c r="J78" s="11">
-        <v>-82127</v>
+        <v>-85463</v>
       </c>
       <c r="K78" s="11">
-        <v>-85463</v>
+        <v>-110164</v>
       </c>
       <c r="L78" s="11">
-        <v>-110164</v>
+        <v>-291295</v>
       </c>
       <c r="M78" s="11">
-        <v>-291295</v>
+        <v>-14578</v>
       </c>
       <c r="N78" s="11">
-        <v>-14578</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-19538</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>-568451</v>
+        <v>-532353</v>
       </c>
       <c r="F79" s="15">
-        <v>-532353</v>
+        <v>-491637</v>
       </c>
       <c r="G79" s="15">
-        <v>-491637</v>
+        <v>-768734</v>
       </c>
       <c r="H79" s="15">
-        <v>-768734</v>
+        <v>-763048</v>
       </c>
       <c r="I79" s="15">
-        <v>-763048</v>
+        <v>-775272</v>
       </c>
       <c r="J79" s="15">
-        <v>-775272</v>
+        <v>-1015033</v>
       </c>
       <c r="K79" s="15">
-        <v>-1015033</v>
+        <v>-973731</v>
       </c>
       <c r="L79" s="15">
-        <v>-973731</v>
+        <v>-1791323</v>
       </c>
       <c r="M79" s="15">
-        <v>-1791323</v>
+        <v>-1015579</v>
       </c>
       <c r="N79" s="15">
-        <v>-1015579</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-961032</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>46</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3029,37 +3029,37 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>-12527</v>
+        <v>-11383</v>
       </c>
       <c r="F81" s="11">
-        <v>-11383</v>
+        <v>-13985</v>
       </c>
       <c r="G81" s="11">
-        <v>-13985</v>
+        <v>-25269</v>
       </c>
       <c r="H81" s="11">
-        <v>-25269</v>
+        <v>0</v>
       </c>
       <c r="I81" s="11">
         <v>0</v>
       </c>
       <c r="J81" s="11">
-        <v>0</v>
+        <v>-14020</v>
       </c>
       <c r="K81" s="11">
-        <v>-14020</v>
+        <v>-9735</v>
       </c>
       <c r="L81" s="11">
-        <v>-9735</v>
-      </c>
-      <c r="M81" s="11">
         <v>-25722</v>
       </c>
+      <c r="M81" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N81" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>25</v>
       </c>
@@ -3091,51 +3091,51 @@
       <c r="L82" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M82" s="13" t="s">
-        <v>24</v>
+      <c r="M82" s="13">
+        <v>-67424</v>
       </c>
       <c r="N82" s="13">
-        <v>-67424</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-84044</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17">
-        <v>-12527</v>
+        <v>-11383</v>
       </c>
       <c r="F83" s="17">
-        <v>-11383</v>
+        <v>-13985</v>
       </c>
       <c r="G83" s="17">
-        <v>-13985</v>
+        <v>-25269</v>
       </c>
       <c r="H83" s="17">
-        <v>-25269</v>
+        <v>0</v>
       </c>
       <c r="I83" s="17">
         <v>0</v>
       </c>
       <c r="J83" s="17">
-        <v>0</v>
+        <v>-14020</v>
       </c>
       <c r="K83" s="17">
-        <v>-14020</v>
+        <v>-9735</v>
       </c>
       <c r="L83" s="17">
-        <v>-9735</v>
+        <v>-25722</v>
       </c>
       <c r="M83" s="17">
-        <v>-25722</v>
+        <v>-67424</v>
       </c>
       <c r="N83" s="17">
-        <v>-67424</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-84044</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>27</v>
       </c>
@@ -3152,8 +3152,8 @@
       <c r="G84" s="15">
         <v>0</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
+      <c r="H84" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>24</v>
@@ -3174,7 +3174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
         <v>29</v>
       </c>
@@ -3194,14 +3194,14 @@
       <c r="H85" s="17">
         <v>0</v>
       </c>
-      <c r="I85" s="17">
-        <v>0</v>
+      <c r="I85" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="J85" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K85" s="17" t="s">
-        <v>24</v>
+      <c r="K85" s="17">
+        <v>0</v>
       </c>
       <c r="L85" s="17">
         <v>0</v>
@@ -3213,44 +3213,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>-2430308</v>
+        <v>-4379131</v>
       </c>
       <c r="F86" s="15">
-        <v>-4379131</v>
+        <v>-4581291</v>
       </c>
       <c r="G86" s="15">
-        <v>-4581291</v>
+        <v>-3793705</v>
       </c>
       <c r="H86" s="15">
-        <v>-3793705</v>
+        <v>-5809136</v>
       </c>
       <c r="I86" s="15">
-        <v>-5809136</v>
+        <v>-7713317</v>
       </c>
       <c r="J86" s="15">
-        <v>-7713317</v>
+        <v>-4175267</v>
       </c>
       <c r="K86" s="15">
-        <v>-4175267</v>
+        <v>-4685606</v>
       </c>
       <c r="L86" s="15">
-        <v>-4685606</v>
+        <v>-6531688</v>
       </c>
       <c r="M86" s="15">
-        <v>-6531688</v>
+        <v>-5898310</v>
       </c>
       <c r="N86" s="15">
-        <v>-5898310</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5865317</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3265,7 +3265,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3280,7 +3280,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>48</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3347,7 +3347,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>49</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3373,37 +3373,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>233247</v>
+        <v>371340</v>
       </c>
       <c r="F93" s="11">
-        <v>371340</v>
+        <v>235191</v>
       </c>
       <c r="G93" s="11">
-        <v>235191</v>
+        <v>237865</v>
       </c>
       <c r="H93" s="11">
-        <v>237865</v>
+        <v>287965</v>
       </c>
       <c r="I93" s="11">
-        <v>287965</v>
+        <v>532038</v>
       </c>
       <c r="J93" s="11">
-        <v>532038</v>
+        <v>207233</v>
       </c>
       <c r="K93" s="11">
-        <v>207233</v>
+        <v>235831</v>
       </c>
       <c r="L93" s="11">
-        <v>235831</v>
+        <v>415835</v>
       </c>
       <c r="M93" s="11">
-        <v>415835</v>
+        <v>214612</v>
       </c>
       <c r="N93" s="11">
-        <v>214612</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91716</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>18</v>
       </c>
@@ -3412,37 +3412,37 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>226607</v>
+        <v>348576</v>
       </c>
       <c r="F94" s="13">
-        <v>348576</v>
+        <v>166099</v>
       </c>
       <c r="G94" s="13">
-        <v>166099</v>
+        <v>11929</v>
       </c>
       <c r="H94" s="13">
-        <v>11929</v>
+        <v>234712</v>
       </c>
       <c r="I94" s="13">
-        <v>234712</v>
+        <v>-3489</v>
       </c>
       <c r="J94" s="13">
-        <v>-3489</v>
+        <v>-43919</v>
       </c>
       <c r="K94" s="13">
-        <v>-43919</v>
+        <v>-98481</v>
       </c>
       <c r="L94" s="13">
-        <v>-98481</v>
+        <v>-79093</v>
       </c>
       <c r="M94" s="13">
-        <v>-79093</v>
+        <v>-2666</v>
       </c>
       <c r="N94" s="13">
-        <v>-2666</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-26069</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>19</v>
       </c>
@@ -3451,74 +3451,74 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>307584</v>
+        <v>351025</v>
       </c>
       <c r="F95" s="11">
-        <v>351025</v>
+        <v>148227</v>
       </c>
       <c r="G95" s="11">
-        <v>148227</v>
+        <v>88431</v>
       </c>
       <c r="H95" s="11">
-        <v>88431</v>
+        <v>435943</v>
       </c>
       <c r="I95" s="11">
-        <v>435943</v>
+        <v>244492</v>
       </c>
       <c r="J95" s="11">
-        <v>244492</v>
+        <v>13440</v>
       </c>
       <c r="K95" s="11">
-        <v>13440</v>
+        <v>-89260</v>
       </c>
       <c r="L95" s="11">
-        <v>-89260</v>
+        <v>-5156</v>
       </c>
       <c r="M95" s="11">
-        <v>-5156</v>
+        <v>202606</v>
       </c>
       <c r="N95" s="11">
-        <v>202606</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19164</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>767438</v>
+        <v>1070941</v>
       </c>
       <c r="F96" s="15">
-        <v>1070941</v>
+        <v>549517</v>
       </c>
       <c r="G96" s="15">
-        <v>549517</v>
+        <v>338225</v>
       </c>
       <c r="H96" s="15">
-        <v>338225</v>
+        <v>958620</v>
       </c>
       <c r="I96" s="15">
-        <v>958620</v>
+        <v>773041</v>
       </c>
       <c r="J96" s="15">
-        <v>773041</v>
+        <v>176754</v>
       </c>
       <c r="K96" s="15">
-        <v>176754</v>
+        <v>48090</v>
       </c>
       <c r="L96" s="15">
-        <v>48090</v>
+        <v>331586</v>
       </c>
       <c r="M96" s="15">
-        <v>331586</v>
+        <v>414552</v>
       </c>
       <c r="N96" s="15">
-        <v>414552</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84811</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>51</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>16</v>
       </c>
@@ -3544,37 +3544,37 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>142792</v>
+        <v>119813</v>
       </c>
       <c r="F98" s="11">
-        <v>119813</v>
+        <v>29885</v>
       </c>
       <c r="G98" s="11">
-        <v>29885</v>
+        <v>1030</v>
       </c>
       <c r="H98" s="11">
-        <v>1030</v>
+        <v>74427</v>
       </c>
       <c r="I98" s="11">
-        <v>74427</v>
+        <v>44066</v>
       </c>
       <c r="J98" s="11">
-        <v>44066</v>
+        <v>-8937</v>
       </c>
       <c r="K98" s="11">
-        <v>-8937</v>
+        <v>11519</v>
       </c>
       <c r="L98" s="11">
-        <v>11519</v>
+        <v>56221</v>
       </c>
       <c r="M98" s="11">
-        <v>56221</v>
+        <v>-53697</v>
       </c>
       <c r="N98" s="11">
-        <v>-53697</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90888</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>18</v>
       </c>
@@ -3583,37 +3583,37 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>172984</v>
+        <v>175701</v>
       </c>
       <c r="F99" s="13">
-        <v>175701</v>
+        <v>58901</v>
       </c>
       <c r="G99" s="13">
-        <v>58901</v>
+        <v>49339</v>
       </c>
       <c r="H99" s="13">
-        <v>49339</v>
+        <v>67440</v>
       </c>
       <c r="I99" s="13">
-        <v>67440</v>
+        <v>68037</v>
       </c>
       <c r="J99" s="13">
-        <v>68037</v>
+        <v>9765</v>
       </c>
       <c r="K99" s="13">
-        <v>9765</v>
+        <v>-158500</v>
       </c>
       <c r="L99" s="13">
-        <v>-158500</v>
+        <v>31351</v>
       </c>
       <c r="M99" s="13">
-        <v>31351</v>
+        <v>120591</v>
       </c>
       <c r="N99" s="13">
-        <v>120591</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>258854</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>19</v>
       </c>
@@ -3622,74 +3622,74 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>10678</v>
+        <v>10986</v>
       </c>
       <c r="F100" s="11">
-        <v>10986</v>
+        <v>-808</v>
       </c>
       <c r="G100" s="11">
-        <v>-808</v>
+        <v>-31</v>
       </c>
       <c r="H100" s="11">
-        <v>-31</v>
+        <v>2658</v>
       </c>
       <c r="I100" s="11">
-        <v>2658</v>
+        <v>17965</v>
       </c>
       <c r="J100" s="11">
-        <v>17965</v>
+        <v>-7152</v>
       </c>
       <c r="K100" s="11">
-        <v>-7152</v>
+        <v>21309</v>
       </c>
       <c r="L100" s="11">
-        <v>21309</v>
+        <v>-6766</v>
       </c>
       <c r="M100" s="11">
-        <v>-6766</v>
+        <v>-24897</v>
       </c>
       <c r="N100" s="11">
-        <v>-24897</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12479</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>326454</v>
+        <v>306500</v>
       </c>
       <c r="F101" s="15">
-        <v>306500</v>
+        <v>87978</v>
       </c>
       <c r="G101" s="15">
-        <v>87978</v>
+        <v>50338</v>
       </c>
       <c r="H101" s="15">
-        <v>50338</v>
+        <v>144525</v>
       </c>
       <c r="I101" s="15">
-        <v>144525</v>
+        <v>130068</v>
       </c>
       <c r="J101" s="15">
-        <v>130068</v>
+        <v>-6324</v>
       </c>
       <c r="K101" s="15">
-        <v>-6324</v>
+        <v>-125672</v>
       </c>
       <c r="L101" s="15">
-        <v>-125672</v>
+        <v>80806</v>
       </c>
       <c r="M101" s="15">
-        <v>80806</v>
+        <v>41997</v>
       </c>
       <c r="N101" s="15">
-        <v>41997</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>362221</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>53</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
@@ -3715,37 +3715,37 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>21139</v>
+        <v>33401</v>
       </c>
       <c r="F103" s="11">
-        <v>33401</v>
+        <v>36329</v>
       </c>
       <c r="G103" s="11">
-        <v>36329</v>
+        <v>14418</v>
       </c>
       <c r="H103" s="11">
-        <v>14418</v>
+        <v>39300</v>
       </c>
       <c r="I103" s="11">
-        <v>39300</v>
+        <v>36241</v>
       </c>
       <c r="J103" s="11">
-        <v>36241</v>
+        <v>11429</v>
       </c>
       <c r="K103" s="11">
-        <v>11429</v>
+        <v>8160</v>
       </c>
       <c r="L103" s="11">
-        <v>8160</v>
-      </c>
-      <c r="M103" s="11">
         <v>-4663</v>
       </c>
+      <c r="M103" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N103" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>25</v>
       </c>
@@ -3777,85 +3777,85 @@
       <c r="L104" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M104" s="13" t="s">
-        <v>24</v>
+      <c r="M104" s="13">
+        <v>63197</v>
       </c>
       <c r="N104" s="13">
-        <v>63197</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17">
-        <v>21139</v>
+        <v>33401</v>
       </c>
       <c r="F105" s="17">
-        <v>33401</v>
+        <v>36329</v>
       </c>
       <c r="G105" s="17">
-        <v>36329</v>
+        <v>14418</v>
       </c>
       <c r="H105" s="17">
-        <v>14418</v>
+        <v>39300</v>
       </c>
       <c r="I105" s="17">
-        <v>39300</v>
+        <v>36241</v>
       </c>
       <c r="J105" s="17">
-        <v>36241</v>
+        <v>11429</v>
       </c>
       <c r="K105" s="17">
-        <v>11429</v>
+        <v>8160</v>
       </c>
       <c r="L105" s="17">
-        <v>8160</v>
+        <v>-4663</v>
       </c>
       <c r="M105" s="17">
-        <v>-4663</v>
+        <v>63197</v>
       </c>
       <c r="N105" s="17">
-        <v>63197</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>1115031</v>
+        <v>1410842</v>
       </c>
       <c r="F106" s="15">
-        <v>1410842</v>
+        <v>673824</v>
       </c>
       <c r="G106" s="15">
-        <v>673824</v>
+        <v>402981</v>
       </c>
       <c r="H106" s="15">
-        <v>402981</v>
+        <v>1142445</v>
       </c>
       <c r="I106" s="15">
-        <v>1142445</v>
+        <v>939350</v>
       </c>
       <c r="J106" s="15">
-        <v>939350</v>
+        <v>181859</v>
       </c>
       <c r="K106" s="15">
-        <v>181859</v>
+        <v>-69422</v>
       </c>
       <c r="L106" s="15">
-        <v>-69422</v>
+        <v>407729</v>
       </c>
       <c r="M106" s="15">
-        <v>407729</v>
+        <v>519746</v>
       </c>
       <c r="N106" s="15">
-        <v>519746</v>
+        <v>492777</v>
       </c>
     </row>
   </sheetData>
